--- a/web/src/test/resources/testProject/input/web/PageObjects.xlsx
+++ b/web/src/test/resources/testProject/input/web/PageObjects.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smrajan\HES\Repository\test-elevate-web\src\test\resources\testProject\input\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/rivu_roy_gds_ey_com/Documents/Documents/GitHub/hes-tep/web/src/test/resources/testProject/input/web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECAAD92-D0D2-4090-80CB-1B7D13386C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{AECAAD92-D0D2-4090-80CB-1B7D13386C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47BB50E-C0F1-46D7-A16D-057BEA5DA612}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14925" activeTab="1" xr2:uid="{853345A7-515C-2B4C-850E-10E9C08B217C}"/>
+    <workbookView xWindow="6150" yWindow="240" windowWidth="21600" windowHeight="11325" xr2:uid="{853345A7-515C-2B4C-850E-10E9C08B217C}"/>
   </bookViews>
   <sheets>
     <sheet name="EY" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>variables</t>
   </si>
@@ -97,6 +98,15 @@
   </si>
   <si>
     <t>submit</t>
+  </si>
+  <si>
+    <t>https://ey.corpmerchandise.com/</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>//ul//a[@id="linkProductName"]//h4[contains(text(),"Bag")]</t>
   </si>
 </sst>
 </file>
@@ -161,6 +171,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D88F1F-0FCC-8B44-BC38-5DEAC59BBF5B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,6 +579,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2071ED6D-DED8-3041-A984-E2C6425CD2D7}"/>
@@ -577,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8C15AD-41B7-4A64-87F3-658E6CA68084}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -644,4 +669,30 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01358B1-ED2C-49D4-B280-2F052ACDCEDC}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{A90CC6D0-0D90-4CCD-82BD-8D728C36A0E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>